--- a/datamining/final_data/sorted2014_nltk.xlsx
+++ b/datamining/final_data/sorted2014_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AMK2"/>
+  <dimension ref="A1:ALD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,54 +467,54 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>teachers</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>teachers</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>definition</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>family</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>definition</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>students</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>honors</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>clusters</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>students</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>honors</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>discourse</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>talent</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>curricula</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>discourse</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>talent</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
           <t>twice-exceptional</t>
@@ -522,112 +522,112 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>memoriam</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>j.</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>memoriam</t>
-        </is>
-      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>nagc</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>children</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>presidential</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>native</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>attitudes</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>classes</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>critical</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>presidential</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>nagc</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>achievement</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>cognitive</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>attitudes</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>cognitive</t>
-        </is>
-      </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>one</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
+          <t>scores</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>measures</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
           <t>above-level</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>scores</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>measures</t>
-        </is>
-      </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
@@ -637,152 +637,152 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>combining</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>musical</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>musical</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>combining</t>
+          <t>age</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>programs/provisions</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
           <t>multiple</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>programs/provisions</t>
-        </is>
-      </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>perceived</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>development</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>perceptions</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>perceived</t>
+          <t>high-ability</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>high-ability</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>asian</t>
+          <t>program</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>perceptions</t>
+          <t>student</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>18</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>december</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
+          <t>1941-september</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>coleman</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>laurence</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
           <t>color</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>impact</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>relationships</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>middle</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>relationships</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>competence</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>strengths-based</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>strengths-based</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>competence</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>december</t>
-        </is>
-      </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>1941-september</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>neuropsychological</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
@@ -792,437 +792,437 @@
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>neuropsychological</t>
+          <t>june</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>laurence</t>
+          <t>james</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>coleman</t>
+          <t>gallagher</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>james</t>
+          <t>perception</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>1926-january</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>collegiate</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>grouping</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>collegiate</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>using</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>initiations</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>differences</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>june</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>initiations</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>gallagher</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>1926-january</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>perception</t>
+          <t>achievement-orientation</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
+          <t>interventions</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>underachievement</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>theory</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
           <t>results</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>theory</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>using</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>underachievement</t>
-        </is>
-      </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>achievement-orientation</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>interventions</t>
+          <t>understanding</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>tom</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>testing</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>orientation</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>special</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>tom</t>
+          <t>acceptance</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>predict</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>understanding</t>
+          <t>data</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>predict</t>
+          <t>high</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>acceptance</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>orientation</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>strengths</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>tops</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>tops</t>
+          <t>volunteer</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>strengths</t>
+          <t>capital</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>school-related</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>volunteer</t>
+          <t>houndstooth</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>involvement</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
           <t>findings</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>operation</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>talent-focused</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>research</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>identified</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>'s</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>identified</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>grade</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>also</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>talent-focused</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>houndstooth</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>research</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>operation</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>capital</t>
-        </is>
-      </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>involvement</t>
+          <t>developmental</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>functioning</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>school-related</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
+          <t>pathway</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
           <t>executive</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>developmental</t>
-        </is>
-      </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>dialogic</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>pathway</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>time</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>functioning</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>found</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>dialogic</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
+          <t>positively</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>learners</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
           <t>comparison</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>learners</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>difficulty</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>participants</t>
-        </is>
-      </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>positively</t>
+          <t>families</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>associated</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>enriched</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>rate</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>classrooms</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>analysis</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
           <t>among</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>grades</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>analysis</t>
-        </is>
-      </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>achieving</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>article</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
@@ -1242,117 +1242,117 @@
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>modeling</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>achieving</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>classrooms</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>modeling</t>
+          <t>despite</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>enriched</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>associated</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>multiple-criteria</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>rule</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>qualitative</t>
+          <t>analyses</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>systems</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>despite</t>
+          <t>equation</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>structural</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>validity</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>analyses</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>multiple-criteria</t>
+          <t>two</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>rule</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>equation</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>validity</t>
+          <t>expertise</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>systems</t>
+          <t>young</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>structural</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>expertise</t>
+          <t>resources</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
@@ -1362,1227 +1362,1227 @@
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>differentiation</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>different</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>group</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>resources</t>
+          <t>preservice</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>cultural</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>differentiation</t>
+          <t>members</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>power</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>power</t>
+          <t>goals</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>cultural</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>members</t>
+          <t>renzulli</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>preservice</t>
+          <t>score</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>high-achieving</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
+          <t>researchers</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
           <t>investigated</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
-        <is>
-          <t>renzulli</t>
-        </is>
-      </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>test</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>offer</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>goals</t>
+          <t>three</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>important</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
           <t>curriculum</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
-        <is>
-          <t>needs</t>
-        </is>
-      </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>examine</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
-        <is>
-          <t>offer</t>
-        </is>
-      </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="HH1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
-      <c r="HI1" s="1" t="inlineStr">
-        <is>
-          <t>characteristics</t>
-        </is>
-      </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>barriers</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>narrative</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>discussions</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>building</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>music</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>high-achieving</t>
+          <t>underserved</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>barriers</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>ojibwe</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>co-cognitive</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>affect</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>eminent</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>filipino</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>literature-based</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>pathways</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>domains</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>although</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>four</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>within</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>singer-songwriter</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>areas</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>agenda</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>assumptions</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>sensitivity</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>influence</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
           <t>lakota</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>physical/mental</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>visual-motor</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>advanced</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
-        <is>
-          <t>assumptions</t>
-        </is>
-      </c>
-      <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>physical/mental</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>agenda</t>
-        </is>
-      </c>
-      <c r="HX1" s="1" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="HY1" s="1" t="inlineStr">
-        <is>
-          <t>building</t>
-        </is>
-      </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="IA1" s="1" t="inlineStr">
-        <is>
-          <t>literature-based</t>
-        </is>
-      </c>
-      <c r="IB1" s="1" t="inlineStr">
-        <is>
-          <t>underserved</t>
-        </is>
-      </c>
-      <c r="IC1" s="1" t="inlineStr">
-        <is>
-          <t>ojibwe</t>
-        </is>
-      </c>
-      <c r="ID1" s="1" t="inlineStr">
-        <is>
-          <t>domains</t>
-        </is>
-      </c>
-      <c r="IE1" s="1" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="IF1" s="1" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>predifferentiated</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>discussed</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="II1" s="1" t="inlineStr">
-        <is>
-          <t>co-cognitive</t>
-        </is>
-      </c>
-      <c r="IJ1" s="1" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>areas</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
-        <is>
-          <t>discussions</t>
-        </is>
-      </c>
-      <c r="IN1" s="1" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-      <c r="IO1" s="1" t="inlineStr">
-        <is>
-          <t>psychological</t>
-        </is>
-      </c>
-      <c r="IP1" s="1" t="inlineStr">
-        <is>
-          <t>although</t>
-        </is>
-      </c>
-      <c r="IQ1" s="1" t="inlineStr">
-        <is>
-          <t>predifferentiated</t>
-        </is>
-      </c>
-      <c r="IR1" s="1" t="inlineStr">
-        <is>
-          <t>these</t>
-        </is>
-      </c>
-      <c r="IS1" s="1" t="inlineStr">
-        <is>
-          <t>influence</t>
-        </is>
-      </c>
-      <c r="IT1" s="1" t="inlineStr">
-        <is>
-          <t>task</t>
-        </is>
-      </c>
-      <c r="IU1" s="1" t="inlineStr">
-        <is>
-          <t>practice</t>
-        </is>
-      </c>
-      <c r="IV1" s="1" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="IW1" s="1" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="IX1" s="1" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="IY1" s="1" t="inlineStr">
-        <is>
-          <t>analyzed</t>
-        </is>
-      </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>visual-motor</t>
+          <t>authors</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>baseline</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>practices</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>singer-songwriter</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>authors</t>
+          <t>revealed</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>emergence</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
           <t>contributions</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>emergence</t>
-        </is>
-      </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>practices</t>
+          <t>socioemotional</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>socioemotional</t>
+          <t>encourage</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>eminent</t>
+          <t>context</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>filipino</t>
+          <t>secondary</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>narrative</t>
+          <t>better</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>pathways</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>several</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>revealed</t>
+          <t>involves</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>based</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>encourage</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>constructs</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>americans</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>ethnicities</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
+          <t>existed</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>particular</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
           <t>iowa</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>statistical</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>benefits</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>exploratory</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>higher</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>theoretical</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>levels</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>attention</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>suggestions</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>felt</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>reliability</t>
-        </is>
-      </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>existed</t>
-        </is>
-      </c>
-      <c r="KC1" s="1" t="inlineStr">
-        <is>
-          <t>secondary</t>
-        </is>
-      </c>
-      <c r="KD1" s="1" t="inlineStr">
-        <is>
-          <t>focus</t>
-        </is>
-      </c>
-      <c r="KE1" s="1" t="inlineStr">
-        <is>
-          <t>ethnicities</t>
-        </is>
-      </c>
-      <c r="KF1" s="1" t="inlineStr">
-        <is>
-          <t>better</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
-        <is>
-          <t>statistical</t>
-        </is>
-      </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="KI1" s="1" t="inlineStr">
-        <is>
-          <t>americans</t>
-        </is>
-      </c>
-      <c r="KJ1" s="1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="KK1" s="1" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="KL1" s="1" t="inlineStr">
-        <is>
-          <t>levels</t>
-        </is>
-      </c>
-      <c r="KM1" s="1" t="inlineStr">
-        <is>
-          <t>based</t>
-        </is>
-      </c>
-      <c r="KN1" s="1" t="inlineStr">
-        <is>
-          <t>involves</t>
-        </is>
-      </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>benefits</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>particular</t>
-        </is>
-      </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>models</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>several</t>
+          <t>well</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>theoretical</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>whether</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>including</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>whether</t>
+          <t>psychometric</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>models</t>
+          <t>exist</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>factor</t>
+          <t>authentic</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>appear</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>procedures</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>appear</t>
+          <t>affected</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>flexible</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>constructs</t>
+          <t>cohesive</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>indicate</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>authentic</t>
+          <t>interviews</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>across</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>meet</t>
+          <t>number</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>explored</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>exist</t>
+          <t>older</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>exploratory</t>
+          <t>state</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>procedures</t>
+          <t>interpersonal</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>mind</t>
+          <t>predictors</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>psychometric</t>
+          <t>ratings</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>often</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
           <t>first</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>ratings</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>overlooked</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>studies</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>effective</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>observed</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>overlooked</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>literature</t>
-        </is>
-      </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>exploring</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>in-depth</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>six</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>interactions</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
-        <is>
-          <t>interpersonal</t>
-        </is>
-      </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjustment</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>provides</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>abilities</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>attributed</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
-        <is>
-          <t>studies</t>
-        </is>
-      </c>
-      <c r="MA1" s="1" t="inlineStr">
-        <is>
-          <t>flexible</t>
-        </is>
-      </c>
-      <c r="MB1" s="1" t="inlineStr">
-        <is>
-          <t>indicate</t>
-        </is>
-      </c>
-      <c r="MC1" s="1" t="inlineStr">
-        <is>
-          <t>interviews</t>
-        </is>
-      </c>
-      <c r="MD1" s="1" t="inlineStr">
-        <is>
-          <t>cohesive</t>
-        </is>
-      </c>
-      <c r="ME1" s="1" t="inlineStr">
-        <is>
-          <t>explored</t>
-        </is>
-      </c>
-      <c r="MF1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="MG1" s="1" t="inlineStr">
-        <is>
-          <t>across</t>
-        </is>
-      </c>
-      <c r="MH1" s="1" t="inlineStr">
-        <is>
-          <t>exploring</t>
-        </is>
-      </c>
-      <c r="MI1" s="1" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="MJ1" s="1" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="MK1" s="1" t="inlineStr">
-        <is>
-          <t>in-depth</t>
-        </is>
-      </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>interest</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
-        <is>
-          <t>provides</t>
-        </is>
-      </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>older</t>
+          <t>explores</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>effective</t>
+          <t>clear</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>predictors</t>
+          <t>applications</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>deficits</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>selection</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>hardly</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>overall</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>enable</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>satisfaction</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>studied</t>
         </is>
       </c>
       <c r="MY1" s="1" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>practitioners</t>
         </is>
       </c>
       <c r="MZ1" s="1" t="inlineStr">
         <is>
-          <t>deficits</t>
+          <t>least</t>
         </is>
       </c>
       <c r="NA1" s="1" t="inlineStr">
         <is>
+          <t>disability</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>gifts</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>exceptional</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>gifted/ld</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>trajectories</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>socioeconomic</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>academically</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>underrepresented</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>youth</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>twice</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>summarize</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>simultaneously</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>rationale</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>african</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>provide</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>proposed</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
           <t>profile</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>applications</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>disability</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>enable</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
-        <is>
-          <t>exceptional</t>
-        </is>
-      </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>gifted/ld</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>gifts</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>compared</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>operational</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>correlations</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>introducing</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>operational</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>youth</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>proposed</t>
-        </is>
-      </c>
-      <c r="NL1" s="1" t="inlineStr">
-        <is>
-          <t>provide</t>
-        </is>
-      </c>
-      <c r="NM1" s="1" t="inlineStr">
-        <is>
-          <t>rationale</t>
-        </is>
-      </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>research-based</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
-        <is>
-          <t>simultaneously</t>
-        </is>
-      </c>
-      <c r="NP1" s="1" t="inlineStr">
-        <is>
-          <t>summarize</t>
-        </is>
-      </c>
-      <c r="NQ1" s="1" t="inlineStr">
-        <is>
-          <t>twice</t>
-        </is>
-      </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>compensating</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>lack</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>design</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
-        <is>
-          <t>correlations</t>
-        </is>
-      </c>
-      <c r="NT1" s="1" t="inlineStr">
-        <is>
-          <t>trajectories</t>
-        </is>
-      </c>
-      <c r="NU1" s="1" t="inlineStr">
-        <is>
-          <t>obtained</t>
-        </is>
-      </c>
-      <c r="NV1" s="1" t="inlineStr">
-        <is>
-          <t>satisfaction</t>
-        </is>
-      </c>
-      <c r="NW1" s="1" t="inlineStr">
-        <is>
-          <t>compensating</t>
-        </is>
-      </c>
-      <c r="NX1" s="1" t="inlineStr">
-        <is>
-          <t>lack</t>
-        </is>
-      </c>
-      <c r="NY1" s="1" t="inlineStr">
-        <is>
-          <t>explores</t>
-        </is>
-      </c>
-      <c r="NZ1" s="1" t="inlineStr">
-        <is>
-          <t>underrepresented</t>
-        </is>
-      </c>
-      <c r="OA1" s="1" t="inlineStr">
-        <is>
-          <t>socioeconomic</t>
-        </is>
-      </c>
       <c r="OB1" s="1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>lessons</t>
         </is>
       </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>lessons</t>
+          <t>required</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>african</t>
+          <t>consistent</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>ways</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>successfully</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>consistent</t>
+          <t>association</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>affected</t>
+          <t>challenging</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>might</t>
         </is>
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>counterparts</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>common</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
-          <t>hardly</t>
+          <t>suggested</t>
         </is>
       </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>average</t>
         </is>
       </c>
       <c r="ON1" s="1" t="inlineStr">
         <is>
-          <t>studied</t>
+          <t>include</t>
         </is>
       </c>
       <c r="OO1" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>deliberate</t>
         </is>
       </c>
       <c r="OP1" s="1" t="inlineStr">
         <is>
-          <t>practitioners</t>
+          <t>exposure</t>
         </is>
       </c>
       <c r="OQ1" s="1" t="inlineStr">
         <is>
-          <t>clear</t>
+          <t>area</t>
         </is>
       </c>
       <c r="OR1" s="1" t="inlineStr">
         <is>
-          <t>successfully</t>
+          <t>control</t>
         </is>
       </c>
       <c r="OS1" s="1" t="inlineStr">
         <is>
-          <t>might</t>
+          <t>multisite</t>
         </is>
       </c>
       <c r="OT1" s="1" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="OU1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>lower</t>
         </is>
       </c>
       <c r="OV1" s="1" t="inlineStr">
         <is>
-          <t>common</t>
+          <t>differentiated</t>
         </is>
       </c>
       <c r="OW1" s="1" t="inlineStr">
         <is>
-          <t>association</t>
+          <t>highest</t>
         </is>
       </c>
       <c r="OX1" s="1" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>cluster-randomized</t>
         </is>
       </c>
       <c r="OY1" s="1" t="inlineStr">
         <is>
-          <t>challenging</t>
+          <t>learned</t>
         </is>
       </c>
       <c r="OZ1" s="1" t="inlineStr">
         <is>
-          <t>suggested</t>
+          <t>assessments</t>
         </is>
       </c>
       <c r="PA1" s="1" t="inlineStr">
         <is>
-          <t>exposure</t>
+          <t>basis</t>
         </is>
       </c>
       <c r="PB1" s="1" t="inlineStr">
         <is>
-          <t>counterparts</t>
+          <t>choice</t>
         </is>
       </c>
       <c r="PC1" s="1" t="inlineStr">
         <is>
-          <t>deliberate</t>
+          <t>best</t>
         </is>
       </c>
       <c r="PD1" s="1" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>conjunctive</t>
         </is>
       </c>
       <c r="PE1" s="1" t="inlineStr">
         <is>
-          <t>multisite</t>
+          <t>combination</t>
         </is>
       </c>
       <c r="PF1" s="1" t="inlineStr">
         <is>
-          <t>highest</t>
+          <t>little</t>
         </is>
       </c>
       <c r="PG1" s="1" t="inlineStr">
         <is>
-          <t>lower</t>
+          <t>system</t>
         </is>
       </c>
       <c r="PH1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>size</t>
         </is>
       </c>
       <c r="PI1" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>simulation</t>
         </is>
       </c>
       <c r="PJ1" s="1" t="inlineStr">
         <is>
-          <t>overall</t>
+          <t>specifically</t>
         </is>
       </c>
       <c r="PK1" s="1" t="inlineStr">
         <is>
-          <t>differentiated</t>
+          <t>psychometrics</t>
         </is>
       </c>
       <c r="PL1" s="1" t="inlineStr">
         <is>
-          <t>cluster-randomized</t>
+          <t>methods</t>
         </is>
       </c>
       <c r="PM1" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>measurement</t>
         </is>
       </c>
       <c r="PN1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>mandated</t>
         </is>
       </c>
       <c r="PO1" s="1" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>making</t>
         </is>
       </c>
       <c r="PP1" s="1" t="inlineStr">
@@ -2592,2967 +2592,2802 @@
       </c>
       <c r="PQ1" s="1" t="inlineStr">
         <is>
-          <t>little</t>
+          <t>compensatory</t>
         </is>
       </c>
       <c r="PR1" s="1" t="inlineStr">
         <is>
-          <t>making</t>
+          <t>georgia</t>
         </is>
       </c>
       <c r="PS1" s="1" t="inlineStr">
         <is>
-          <t>mandated</t>
+          <t>examines</t>
         </is>
       </c>
       <c r="PT1" s="1" t="inlineStr">
         <is>
-          <t>assessments</t>
+          <t>disjunctive/complementary</t>
         </is>
       </c>
       <c r="PU1" s="1" t="inlineStr">
         <is>
-          <t>methods</t>
+          <t>decisions</t>
         </is>
       </c>
       <c r="PV1" s="1" t="inlineStr">
         <is>
-          <t>georgia</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="PW1" s="1" t="inlineStr">
         <is>
-          <t>psychometrics</t>
+          <t>criteria</t>
         </is>
       </c>
       <c r="PX1" s="1" t="inlineStr">
         <is>
-          <t>simulation</t>
+          <t>considers</t>
         </is>
       </c>
       <c r="PY1" s="1" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>consequences</t>
         </is>
       </c>
       <c r="PZ1" s="1" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="QA1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="QB1" s="1" t="inlineStr">
         <is>
-          <t>disjunctive/complementary</t>
+          <t>uses</t>
         </is>
       </c>
       <c r="QC1" s="1" t="inlineStr">
         <is>
-          <t>examines</t>
+          <t>loss</t>
         </is>
       </c>
       <c r="QD1" s="1" t="inlineStr">
         <is>
-          <t>basis</t>
+          <t>posited</t>
         </is>
       </c>
       <c r="QE1" s="1" t="inlineStr">
         <is>
-          <t>decisions</t>
+          <t>promise</t>
         </is>
       </c>
       <c r="QF1" s="1" t="inlineStr">
         <is>
-          <t>criteria</t>
+          <t>made</t>
         </is>
       </c>
       <c r="QG1" s="1" t="inlineStr">
         <is>
-          <t>considers</t>
+          <t>validated</t>
         </is>
       </c>
       <c r="QH1" s="1" t="inlineStr">
         <is>
-          <t>consequences</t>
+          <t>investigate</t>
         </is>
       </c>
       <c r="QI1" s="1" t="inlineStr">
         <is>
-          <t>conjunctive</t>
+          <t>furthermore</t>
         </is>
       </c>
       <c r="QJ1" s="1" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>frustrating</t>
         </is>
       </c>
       <c r="QK1" s="1" t="inlineStr">
         <is>
-          <t>compensatory</t>
+          <t>yet</t>
         </is>
       </c>
       <c r="QL1" s="1" t="inlineStr">
         <is>
-          <t>combination</t>
+          <t>represents</t>
         </is>
       </c>
       <c r="QM1" s="1" t="inlineStr">
         <is>
-          <t>learned</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="QN1" s="1" t="inlineStr">
         <is>
-          <t>choice</t>
+          <t>empirically</t>
         </is>
       </c>
       <c r="QO1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>demonstrate</t>
         </is>
       </c>
       <c r="QP1" s="1" t="inlineStr">
         <is>
-          <t>specifically</t>
+          <t>seventh-grade</t>
         </is>
       </c>
       <c r="QQ1" s="1" t="inlineStr">
         <is>
-          <t>uses</t>
+          <t>sixth-</t>
         </is>
       </c>
       <c r="QR1" s="1" t="inlineStr">
         <is>
-          <t>demonstrate</t>
+          <t>society</t>
         </is>
       </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>attempts</t>
         </is>
       </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
+          <t>whose</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
           <t>156</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
-        <is>
-          <t>elementary</t>
-        </is>
-      </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
-          <t>attempts</t>
+          <t>underachievers</t>
         </is>
       </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
-          <t>empirically</t>
+          <t>underpinnings</t>
         </is>
       </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>frustrating</t>
+          <t>path</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
-          <t>furthermore</t>
+          <t>contact</t>
         </is>
       </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
-          <t>loss</t>
+          <t>elitism</t>
         </is>
       </c>
       <c r="RA1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>74</t>
         </is>
       </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>path</t>
+          <t>recognition</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
-          <t>posited</t>
+          <t>5-</t>
         </is>
       </c>
       <c r="RD1" s="1" t="inlineStr">
         <is>
-          <t>promise</t>
+          <t>readily</t>
         </is>
       </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
-          <t>represents</t>
+          <t>53</t>
         </is>
       </c>
       <c r="RF1" s="1" t="inlineStr">
         <is>
-          <t>investigate</t>
+          <t>elitist</t>
         </is>
       </c>
       <c r="RG1" s="1" t="inlineStr">
         <is>
-          <t>seventh-grade</t>
+          <t>confirmatory</t>
         </is>
       </c>
       <c r="RH1" s="1" t="inlineStr">
         <is>
-          <t>sixth-</t>
+          <t>statistically</t>
         </is>
       </c>
       <c r="RI1" s="1" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>9-year-old</t>
         </is>
       </c>
       <c r="RJ1" s="1" t="inlineStr">
         <is>
-          <t>whose</t>
+          <t>race</t>
         </is>
       </c>
       <c r="RK1" s="1" t="inlineStr">
         <is>
-          <t>yet</t>
+          <t>advanced/extended</t>
         </is>
       </c>
       <c r="RL1" s="1" t="inlineStr">
         <is>
-          <t>underachievers</t>
+          <t>economically</t>
         </is>
       </c>
       <c r="RM1" s="1" t="inlineStr">
         <is>
-          <t>underpinnings</t>
+          <t>document</t>
         </is>
       </c>
       <c r="RN1" s="1" t="inlineStr">
         <is>
-          <t>validated</t>
+          <t>disadvantaged</t>
         </is>
       </c>
       <c r="RO1" s="1" t="inlineStr">
         <is>
+          <t>high-potential</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>australian</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>culturally</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>persons</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>kept</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>linguistically</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>majority</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>nine</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>behavior</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>observation</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>observe</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>plus</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>recognize</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>interaction</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>younger</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>surveys</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>sociodemographic</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>provisions</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>provision</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>similar</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>1,741</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>significant</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>seeing</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>u-stars</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>recognizing</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>tool</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>systematically</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>supporting</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
           <t>personal/personal</t>
         </is>
       </c>
-      <c r="RP1" s="1" t="inlineStr">
-        <is>
-          <t>persons</t>
-        </is>
-      </c>
-      <c r="RQ1" s="1" t="inlineStr">
-        <is>
-          <t>confirmatory</t>
-        </is>
-      </c>
-      <c r="RR1" s="1" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="RS1" s="1" t="inlineStr">
-        <is>
-          <t>interaction</t>
-        </is>
-      </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>advanced/extended</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>prior</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>from</t>
-        </is>
-      </c>
-      <c r="RX1" s="1" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>younger</t>
-        </is>
-      </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>australian</t>
-        </is>
-      </c>
-      <c r="SC1" s="1" t="inlineStr">
-        <is>
-          <t>sociodemographic</t>
-        </is>
-      </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>elitism</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>provision</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>provisions</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>surveys</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>elitist</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>differentiating</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>aspirations</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>begun</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>career</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>environmental</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>self-efficacy</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>consensual</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>considerable</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>contexts</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>ethnic</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>extensive</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
         <is>
           <t>familiar</t>
         </is>
       </c>
-      <c r="SK1" s="1" t="inlineStr">
-        <is>
-          <t>extensive</t>
-        </is>
-      </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>environmental</t>
-        </is>
-      </c>
-      <c r="SM1" s="1" t="inlineStr">
+      <c r="TP1" s="1" t="inlineStr">
         <is>
           <t>foster</t>
         </is>
       </c>
-      <c r="SN1" s="1" t="inlineStr">
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>ecological</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>creating</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrated</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>sioux</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>navajo</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>needed</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>populations</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>preferences</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>purposes</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>relevance</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>remains</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>researched</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>reviewed</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>delving</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>styles</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>background</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>breadth</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>surrounding</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>comfortable</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>components</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>traditions</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>tribal</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>hopes</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>fostering</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>gap</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>guarantee</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>handle</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>hinder</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>initiation-response-evaluation</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>methodologies</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>instructional</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>persistence</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>supported</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>ire</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>microanalysis</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>perspective</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>offers</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>straying</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>patterns</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>virginia</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>preponderance</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>received</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>recorded</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>scholarly</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>sets</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>since</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>sometimes</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>strategies</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>takes</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>transcribed</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>shape</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>ground</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>focuses</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>issues</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>filling</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>verbal</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>methodological</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>midwest</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
         <is>
           <t>foundations</t>
         </is>
       </c>
-      <c r="SO1" s="1" t="inlineStr">
-        <is>
-          <t>fostering</t>
-        </is>
-      </c>
-      <c r="SP1" s="1" t="inlineStr">
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>misunderstandings</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>pay</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>scant</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>freshman</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>scholars</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>smart</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>knowledgeable</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>argued</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>attested</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>central</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>commonwealth</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>conversations</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>corpus</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>variety</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>valuation</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>discursive</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>meaningful</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>textbook</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>employ</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>fertile</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>territory</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>due</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>gifted/creative/talented</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>means</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>vision/sense</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>additionally</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>various</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>theories</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>projects</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>recipients</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>played</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>romance</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>topic/discipline</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>types</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>activities</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>provided</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>and/or</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>asynchrony</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>nurturing</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>become</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>challenges</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>noel</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>neighborhood</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>change</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>cohort</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>assist</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>beery-buktenica</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>benchmarking</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>preliteracy</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>oromotor</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>nonsense</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>naming</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>measure</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>markers</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>loadings</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>kindergarteners</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>kindergarten</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>intelligence</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>includes</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>inattention</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>great</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>optimism</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>early-reading</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>defining</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>conducting</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>canonical</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>collected</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>emotional/behavioral</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>early</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>records</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>reflecting</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>reports</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>requirements</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>developing</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>sought</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>supports</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>daily</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>community</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>cabangon</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>tolerance</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>assume</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>artist</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>underlying</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>advance</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>absence</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>philosophy</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>motivations</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>five</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>graduation</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>groups</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>incorporation</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>lens</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>intrinsic</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>mentor</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>offered</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>extrinsic</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>ongoing</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>entire</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
         <is>
           <t>opportunities</t>
         </is>
       </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>differentiating</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>ethnic</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>offered</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>depth</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>ongoing</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>ecological</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>contexts</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>considerable</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>consensual</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
-        <is>
-          <t>components</t>
-        </is>
-      </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>career</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>explore</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>freshman</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>begun</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
-        <is>
-          <t>aspirations</t>
-        </is>
-      </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>mentor</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>creating</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>delving</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrated</t>
-        </is>
-      </c>
-      <c r="TM1" s="1" t="inlineStr">
+      <c r="AAN1" s="1" t="inlineStr">
         <is>
           <t>overcome</t>
         </is>
       </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>graduation</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>optimism</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>remains</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>third</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>surrounding</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>styles</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>sioux</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>reviewed</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>researched</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>relevance</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>traditions</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>purposes</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>preferences</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>populations</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>private</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>needed</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>philosophy</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>tribal</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>knowledgeable</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>self-efficacy</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
+      <c r="AAO1" s="1" t="inlineStr">
         <is>
           <t>parent</t>
         </is>
       </c>
-      <c r="UM1" s="1" t="inlineStr">
+      <c r="AAP1" s="1" t="inlineStr">
         <is>
           <t>part</t>
         </is>
       </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>meaningful</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>methodologies</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>persistence</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>perspective</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>shape</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>textbook</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
+      <c r="AAQ1" s="1" t="inlineStr">
         <is>
           <t>participating</t>
         </is>
       </c>
-      <c r="UU1" s="1" t="inlineStr">
+      <c r="AAR1" s="1" t="inlineStr">
         <is>
           <t>people</t>
         </is>
       </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>strategies</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>straying</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>supported</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>territory</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>lens</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>college</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>high-potential</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>behavior</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>culturally</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>disadvantaged</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>document</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>economically</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>recipients</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>kept</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>incorporation</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>linguistically</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>majority</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>nine</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>observation</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>enabled</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>observe</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>projects</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>9-year-old</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>activities</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>asynchrony</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>become</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>vision/sense</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>types</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>topic/discipline</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>challenges</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>change</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>collected</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>romance</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>1,741</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>5-</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>emotional/behavioral</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>plus</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>race</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>readily</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>processing</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>providing</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>communities-dine</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>dine</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>courage</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>creative</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>mixed-methods</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>measured</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>concerning</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>concerns</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>dissimilar</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>focused</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>communities</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>chippewa</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>analyze</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>accurace</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>community-based</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>allowing</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>directions</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>destiny</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>speeded</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>quotient</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>grounded</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>generated</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>repetition</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>sequences</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>superior</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>variability</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>gathered</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>words</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
         <is>
           <t>ohit</t>
         </is>
       </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>smart</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>scholars</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>scant</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>pay</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>misunderstandings</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
-        <is>
-          <t>midwest</t>
-        </is>
-      </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>methodological</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>many</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>issues</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>hopes</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>groups</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>comfortable</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>five</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>recognition</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>breadth</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>recognize</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>recognizing</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>seeing</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>significant</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>similar</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>statistically</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>supporting</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>systematically</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>tool</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>u-stars</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>without</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>able</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>background</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>navajo</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>records</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>national</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>includes</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>markers</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>loadings</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>kindergarteners</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>kindergarten</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>intelligence</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>integration</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>inattention</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>canonical</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>grounded</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>ii</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
         <is>
           <t>face-to-face</t>
         </is>
       </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>early-reading</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>defining</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>conducting</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>means</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>valuation</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>ii</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>naming</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>nonsense</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>measured</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>oromotor</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>preliteracy</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>provided</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>providing</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>quotient</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>relationship</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>repetition</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>sequences</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>dissimilar</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>benchmarking</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>superior</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>intrinsic</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>extrinsic</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>entire</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>early</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>developing</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>beery-buktenica</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>cabangon</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>assume</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>artist</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>advance</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>absence</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>living</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>most</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>motivations</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>neighborhood</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>noel</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>nurturing</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>allowing</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>played</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>community-based</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>theories</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>various</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>concerns</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>courage</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>additionally</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>destiny</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>assist</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>speeded</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>culture</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>sought</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>accurace</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>analyze</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>safety</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>call</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>chippewa</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>communities</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>communities-dine</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>concerning</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>creative</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>dine</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>through</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>directions</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>requirements</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>focused</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>gathered</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>generated</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>gifted/creative/talented</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>reports</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>variety</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>reflecting</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>supports</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>and/or</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>underlying</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>variability</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>tolerance</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>words</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>mixed-methods</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>processes</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>worthwhile</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>problems</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>depends</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>utilized</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>effort</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>widely</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>wider</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>adapted</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>administrators</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>adults</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>applying</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>considered</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>specialist</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>specialists</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>routines</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>effectively</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>real-world</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>together</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>focusing</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>organize</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>potentially</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>outcomes</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>multivariate</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>moreover</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>initially</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>impacts</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>fifth</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>exhibited</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
+          <t>developments</t>
+        </is>
+      </c>
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>detrimental</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>criticized</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>covariate</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>covariance</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>between-subject</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>age/developmental</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>assertiveness</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>beginning</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
+          <t>paralleled</t>
+        </is>
+      </c>
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>facilitators</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
+          <t>interests</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
+        <is>
+          <t>within-subject</t>
+        </is>
+      </c>
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>beliefs</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>heavily</t>
+        </is>
+      </c>
+      <c r="AEO1" s="1" t="inlineStr">
+        <is>
+          <t>vs.</t>
+        </is>
+      </c>
+      <c r="AEP1" s="1" t="inlineStr">
+        <is>
+          <t>typegifted</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="1" t="inlineStr">
+        <is>
+          <t>twins</t>
+        </is>
+      </c>
+      <c r="AER1" s="1" t="inlineStr">
+        <is>
+          <t>therefore</t>
+        </is>
+      </c>
+      <c r="AES1" s="1" t="inlineStr">
+        <is>
+          <t>student-teacher</t>
+        </is>
+      </c>
+      <c r="AET1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="AEU1" s="1" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="AEV1" s="1" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="AEW1" s="1" t="inlineStr">
+        <is>
+          <t>limitations</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
+        <is>
+          <t>implementing</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>sixth</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>self-concepts</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>represent</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>reported</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>repeated-measures</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>indicates</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>regularand</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>related</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>hispanic</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>typical</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
+          <t>learner</t>
+        </is>
+      </c>
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
+          <t>predicted</t>
+        </is>
+      </c>
+      <c r="AFL1" s="1" t="inlineStr">
+        <is>
+          <t>predictor</t>
+        </is>
+      </c>
+      <c r="AFM1" s="1" t="inlineStr">
+        <is>
+          <t>predicts</t>
+        </is>
+      </c>
+      <c r="AFN1" s="1" t="inlineStr">
+        <is>
+          <t>relative</t>
+        </is>
+      </c>
+      <c r="AFO1" s="1" t="inlineStr">
+        <is>
+          <t>schoolwork</t>
+        </is>
+      </c>
+      <c r="AFP1" s="1" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="1" t="inlineStr">
+        <is>
+          <t>succeed</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
+        <is>
+          <t>tasks</t>
+        </is>
+      </c>
+      <c r="AFS1" s="1" t="inlineStr">
+        <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="AFT1" s="1" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="AFU1" s="1" t="inlineStr">
+        <is>
+          <t>accepted</t>
+        </is>
+      </c>
+      <c r="AFV1" s="1" t="inlineStr">
+        <is>
+          <t>administering</t>
+        </is>
+      </c>
+      <c r="AFW1" s="1" t="inlineStr">
+        <is>
+          <t>age-groups</t>
+        </is>
+      </c>
+      <c r="AFX1" s="1" t="inlineStr">
+        <is>
+          <t>aptitude</t>
+        </is>
+      </c>
+      <c r="AFY1" s="1" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="AFZ1" s="1" t="inlineStr">
+        <is>
+          <t>beyond</t>
+        </is>
+      </c>
+      <c r="AGA1" s="1" t="inlineStr">
+        <is>
+          <t>ideas</t>
+        </is>
+      </c>
+      <c r="AGB1" s="1" t="inlineStr">
+        <is>
+          <t>enrolled</t>
+        </is>
+      </c>
+      <c r="AGC1" s="1" t="inlineStr">
+        <is>
+          <t>designed</t>
+        </is>
+      </c>
+      <c r="AGD1" s="1" t="inlineStr">
+        <is>
+          <t>differentiate</t>
+        </is>
+      </c>
+      <c r="AGE1" s="1" t="inlineStr">
+        <is>
+          <t>perceivers</t>
+        </is>
+      </c>
+      <c r="AGF1" s="1" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="AGG1" s="1" t="inlineStr">
+        <is>
+          <t>mainly</t>
+        </is>
+      </c>
+      <c r="AGH1" s="1" t="inlineStr">
+        <is>
+          <t>late</t>
+        </is>
+      </c>
+      <c r="AGI1" s="1" t="inlineStr">
+        <is>
+          <t>importance</t>
+        </is>
+      </c>
+      <c r="AGJ1" s="1" t="inlineStr">
+        <is>
+          <t>childhood</t>
+        </is>
+      </c>
+      <c r="AGK1" s="1" t="inlineStr">
+        <is>
+          <t>associations</t>
+        </is>
+      </c>
+      <c r="AGL1" s="1" t="inlineStr">
+        <is>
+          <t>accurate</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="AGN1" s="1" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="AGO1" s="1" t="inlineStr">
+        <is>
+          <t>twenty-four</t>
+        </is>
+      </c>
+      <c r="AGP1" s="1" t="inlineStr">
+        <is>
+          <t>accelerate</t>
+        </is>
+      </c>
+      <c r="AGQ1" s="1" t="inlineStr">
+        <is>
+          <t>acceleration</t>
+        </is>
+      </c>
+      <c r="AGR1" s="1" t="inlineStr">
+        <is>
+          <t>along</t>
+        </is>
+      </c>
+      <c r="AGS1" s="1" t="inlineStr">
+        <is>
+          <t>big-fish-little-pond</t>
+        </is>
+      </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
+        <is>
+          <t>coursework</t>
+        </is>
+      </c>
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>careful</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
+          <t>rules</t>
+        </is>
+      </c>
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>overrepresented</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
+        <is>
+          <t>distributions</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>tested</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>substantial</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>scrutiny</t>
+        </is>
+      </c>
+      <c r="AHF1" s="1" t="inlineStr">
+        <is>
+          <t>reading</t>
+        </is>
+      </c>
+      <c r="AHG1" s="1" t="inlineStr">
+        <is>
+          <t>performed</t>
+        </is>
+      </c>
+      <c r="AHH1" s="1" t="inlineStr">
+        <is>
+          <t>participated</t>
+        </is>
+      </c>
+      <c r="AHI1" s="1" t="inlineStr">
         <is>
           <t>times</t>
         </is>
       </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>money</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>substantial</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>tested</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>student-teacher</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>stage</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
+      <c r="AHJ1" s="1" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="AHK1" s="1" t="inlineStr">
+        <is>
+          <t>hierarchical</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="AHM1" s="1" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="AHN1" s="1" t="inlineStr">
+        <is>
+          <t>gains</t>
+        </is>
+      </c>
+      <c r="AHO1" s="1" t="inlineStr">
         <is>
           <t>track</t>
         </is>
       </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>twenty-four</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>typical</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>sixth</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>widely</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>vs.</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>within-subject</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>utilized</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>hierarchical</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>hispanic</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
+      <c r="AHP1" s="1" t="inlineStr">
+        <is>
+          <t>schoolwide</t>
+        </is>
+      </c>
+      <c r="AHQ1" s="1" t="inlineStr">
         <is>
           <t>hundred</t>
         </is>
       </c>
-      <c r="ACV1" s="1" t="inlineStr">
+      <c r="AHR1" s="1" t="inlineStr">
         <is>
           <t>included</t>
         </is>
       </c>
-      <c r="ACW1" s="1" t="inlineStr">
+      <c r="AHS1" s="1" t="inlineStr">
         <is>
           <t>increases</t>
         </is>
       </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>specialist</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>scrutiny</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>overrepresented</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>gains</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>participated</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>performed</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>therefore</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>typegifted</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>way</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>reading</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>wider</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>paralleled</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>potentially</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>developments</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>covariance</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>covariate</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>criticized</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>real-world</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>plan</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>detrimental</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>exhibited</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>routines</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>fifth</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>processes</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>impacts</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>initially</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>moreover</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>multivariate</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="AEF1" s="1" t="inlineStr">
-        <is>
-          <t>outcomes</t>
-        </is>
-      </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>between-subject</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>worthwhile</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>schoolwide</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>self-concepts</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>represent</t>
-        </is>
-      </c>
-      <c r="AEM1" s="1" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="AEN1" s="1" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="AEO1" s="1" t="inlineStr">
-        <is>
-          <t>problems</t>
-        </is>
-      </c>
-      <c r="AEP1" s="1" t="inlineStr">
-        <is>
-          <t>reported</t>
-        </is>
-      </c>
-      <c r="AEQ1" s="1" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="AER1" s="1" t="inlineStr">
-        <is>
-          <t>repeated-measures</t>
-        </is>
-      </c>
-      <c r="AES1" s="1" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="AET1" s="1" t="inlineStr">
-        <is>
-          <t>beliefs</t>
-        </is>
-      </c>
-      <c r="AEU1" s="1" t="inlineStr">
-        <is>
-          <t>twins</t>
-        </is>
-      </c>
-      <c r="AEV1" s="1" t="inlineStr">
-        <is>
-          <t>rules</t>
-        </is>
-      </c>
-      <c r="AEW1" s="1" t="inlineStr">
-        <is>
-          <t>regularand</t>
-        </is>
-      </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>age/developmental</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>assertiveness</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>attending</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>beginning</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>organize</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>specialists</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>ethnicity</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>childhood</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>conversations</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>corpus</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>associations</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>discursive</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>due</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>accurate</t>
-        </is>
-      </c>
-      <c r="AFM1" s="1" t="inlineStr">
-        <is>
-          <t>employ</t>
-        </is>
-      </c>
-      <c r="AFN1" s="1" t="inlineStr">
-        <is>
-          <t>fertile</t>
-        </is>
-      </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>filling</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>focuses</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
-        <is>
-          <t>gap</t>
-        </is>
-      </c>
-      <c r="AFR1" s="1" t="inlineStr">
-        <is>
-          <t>ground</t>
-        </is>
-      </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>guarantee</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>handle</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>hinder</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>initiation-response-evaluation</t>
-        </is>
-      </c>
-      <c r="AFW1" s="1" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>instructional</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
-        <is>
-          <t>ire</t>
-        </is>
-      </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>671</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>microanalysis</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>commonwealth</t>
-        </is>
-      </c>
-      <c r="AGC1" s="1" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="AGD1" s="1" t="inlineStr">
-        <is>
-          <t>patterns</t>
-        </is>
-      </c>
-      <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>attested</t>
-        </is>
-      </c>
-      <c r="AGF1" s="1" t="inlineStr">
-        <is>
-          <t>depends</t>
-        </is>
-      </c>
-      <c r="AGG1" s="1" t="inlineStr">
-        <is>
-          <t>effort</t>
-        </is>
-      </c>
-      <c r="AGH1" s="1" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="AGI1" s="1" t="inlineStr">
-        <is>
-          <t>applying</t>
-        </is>
-      </c>
-      <c r="AGJ1" s="1" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
-      <c r="AGK1" s="1" t="inlineStr">
-        <is>
-          <t>facilitators</t>
-        </is>
-      </c>
-      <c r="AGL1" s="1" t="inlineStr">
-        <is>
-          <t>administrators</t>
-        </is>
-      </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>adapted</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>years</t>
-        </is>
-      </c>
-      <c r="AGO1" s="1" t="inlineStr">
-        <is>
-          <t>focusing</t>
-        </is>
-      </c>
-      <c r="AGP1" s="1" t="inlineStr">
-        <is>
-          <t>heavily</t>
-        </is>
-      </c>
-      <c r="AGQ1" s="1" t="inlineStr">
-        <is>
-          <t>together</t>
-        </is>
-      </c>
-      <c r="AGR1" s="1" t="inlineStr">
-        <is>
-          <t>related</t>
-        </is>
-      </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>perceivers</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>mainly</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
-        <is>
-          <t>limitations</t>
-        </is>
-      </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="AGX1" s="1" t="inlineStr">
-        <is>
-          <t>importance</t>
-        </is>
-      </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>implementing</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
-        <is>
-          <t>argued</t>
-        </is>
-      </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>offers</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>indicates</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
-        <is>
-          <t>preponderance</t>
-        </is>
-      </c>
-      <c r="AHD1" s="1" t="inlineStr">
-        <is>
-          <t>learner</t>
-        </is>
-      </c>
-      <c r="AHE1" s="1" t="inlineStr">
-        <is>
-          <t>predicted</t>
-        </is>
-      </c>
-      <c r="AHF1" s="1" t="inlineStr">
-        <is>
-          <t>predictor</t>
-        </is>
-      </c>
-      <c r="AHG1" s="1" t="inlineStr">
-        <is>
-          <t>predicts</t>
-        </is>
-      </c>
-      <c r="AHH1" s="1" t="inlineStr">
-        <is>
-          <t>relative</t>
-        </is>
-      </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>schoolwork</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>received</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>succeed</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
-        <is>
-          <t>tasks</t>
-        </is>
-      </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>accepted</t>
-        </is>
-      </c>
-      <c r="AHQ1" s="1" t="inlineStr">
-        <is>
-          <t>administering</t>
-        </is>
-      </c>
-      <c r="AHR1" s="1" t="inlineStr">
-        <is>
-          <t>age-groups</t>
-        </is>
-      </c>
-      <c r="AHS1" s="1" t="inlineStr">
-        <is>
-          <t>aptitude</t>
-        </is>
-      </c>
       <c r="AHT1" s="1" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>aspects</t>
         </is>
       </c>
       <c r="AHU1" s="1" t="inlineStr">
         <is>
-          <t>beyond</t>
+          <t>competency</t>
         </is>
       </c>
       <c r="AHV1" s="1" t="inlineStr">
         <is>
-          <t>careful</t>
+          <t>norming</t>
         </is>
       </c>
       <c r="AHW1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="AHX1" s="1" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>functional</t>
         </is>
       </c>
       <c r="AHY1" s="1" t="inlineStr">
         <is>
-          <t>distributions</t>
+          <t>good</t>
         </is>
       </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
-          <t>effectively</t>
+          <t>intimate</t>
         </is>
       </c>
       <c r="AIB1" s="1" t="inlineStr">
         <is>
-          <t>accelerated</t>
+          <t>involving</t>
         </is>
       </c>
       <c r="AIC1" s="1" t="inlineStr">
         <is>
-          <t>virginia</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="AID1" s="1" t="inlineStr">
         <is>
-          <t>step</t>
+          <t>rated</t>
         </is>
       </c>
       <c r="AIE1" s="1" t="inlineStr">
         <is>
-          <t>big-fish-little-pond</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AIF1" s="1" t="inlineStr">
         <is>
-          <t>interests</t>
+          <t>parenting</t>
         </is>
       </c>
       <c r="AIG1" s="1" t="inlineStr">
         <is>
-          <t>takes</t>
+          <t>previous</t>
         </is>
       </c>
       <c r="AIH1" s="1" t="inlineStr">
         <is>
-          <t>along</t>
+          <t>rating</t>
         </is>
       </c>
       <c r="AII1" s="1" t="inlineStr">
         <is>
-          <t>led</t>
+          <t>respectful</t>
         </is>
       </c>
       <c r="AIJ1" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>rigidity</t>
         </is>
       </c>
       <c r="AIK1" s="1" t="inlineStr">
         <is>
-          <t>acceleration</t>
+          <t>supportive</t>
         </is>
       </c>
       <c r="AIL1" s="1" t="inlineStr">
         <is>
-          <t>ideas</t>
+          <t>1,500</t>
         </is>
       </c>
       <c r="AIM1" s="1" t="inlineStr">
         <is>
-          <t>coursework</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="AIN1" s="1" t="inlineStr">
         <is>
-          <t>sometimes</t>
+          <t>unlike</t>
         </is>
       </c>
       <c r="AIO1" s="1" t="inlineStr">
         <is>
-          <t>since</t>
+          <t>affectionate</t>
         </is>
       </c>
       <c r="AIP1" s="1" t="inlineStr">
         <is>
-          <t>sets</t>
+          <t>endorsed</t>
         </is>
       </c>
       <c r="AIQ1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>randomized</t>
         </is>
       </c>
       <c r="AIR1" s="1" t="inlineStr">
         <is>
-          <t>scholarly</t>
+          <t>core</t>
         </is>
       </c>
       <c r="AIS1" s="1" t="inlineStr">
         <is>
-          <t>recorded</t>
+          <t>outperformed</t>
         </is>
       </c>
       <c r="AIT1" s="1" t="inlineStr">
         <is>
-          <t>differentiate</t>
+          <t>three-level</t>
         </is>
       </c>
       <c r="AIU1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>length</t>
         </is>
       </c>
       <c r="AIV1" s="1" t="inlineStr">
         <is>
-          <t>enrolled</t>
+          <t>thus</t>
         </is>
       </c>
       <c r="AIW1" s="1" t="inlineStr">
         <is>
-          <t>transcribed</t>
+          <t>increased</t>
         </is>
       </c>
       <c r="AIX1" s="1" t="inlineStr">
         <is>
-          <t>final</t>
+          <t>postachievement</t>
         </is>
       </c>
       <c r="AIY1" s="1" t="inlineStr">
         <is>
-          <t>rated</t>
+          <t>fruitfully</t>
         </is>
       </c>
       <c r="AIZ1" s="1" t="inlineStr">
         <is>
-          <t>supportive</t>
+          <t>fourth-grade</t>
         </is>
       </c>
       <c r="AJA1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>efforts</t>
         </is>
       </c>
       <c r="AJB1" s="1" t="inlineStr">
         <is>
-          <t>rigidity</t>
+          <t>greatest</t>
         </is>
       </c>
       <c r="AJC1" s="1" t="inlineStr">
         <is>
-          <t>respectful</t>
+          <t>multilevel</t>
         </is>
       </c>
       <c r="AJD1" s="1" t="inlineStr">
         <is>
-          <t>rating</t>
+          <t>differ</t>
         </is>
       </c>
       <c r="AJE1" s="1" t="inlineStr">
         <is>
-          <t>intimate</t>
+          <t>delivery</t>
         </is>
       </c>
       <c r="AJF1" s="1" t="inlineStr">
         <is>
-          <t>previous</t>
+          <t>cornell</t>
         </is>
       </c>
       <c r="AJG1" s="1" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>comparing</t>
         </is>
       </c>
       <c r="AJH1" s="1" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>benefit</t>
         </is>
       </c>
       <c r="AJI1" s="1" t="inlineStr">
         <is>
-          <t>norming</t>
+          <t>cognition</t>
         </is>
       </c>
       <c r="AJJ1" s="1" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="AJK1" s="1" t="inlineStr">
         <is>
-          <t>involving</t>
+          <t>weeks</t>
         </is>
       </c>
       <c r="AJL1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>adoption</t>
         </is>
       </c>
       <c r="AJM1" s="1" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AJN1" s="1" t="inlineStr">
         <is>
-          <t>functional</t>
+          <t>163</t>
         </is>
       </c>
       <c r="AJO1" s="1" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="AJP1" s="1" t="inlineStr">
         <is>
-          <t>endorsed</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJQ1" s="1" t="inlineStr">
         <is>
-          <t>competency</t>
+          <t>moderated</t>
         </is>
       </c>
       <c r="AJR1" s="1" t="inlineStr">
         <is>
-          <t>aspects</t>
+          <t>harm-students</t>
         </is>
       </c>
       <c r="AJS1" s="1" t="inlineStr">
         <is>
-          <t>affectionate</t>
+          <t>heterogeneous</t>
         </is>
       </c>
       <c r="AJT1" s="1" t="inlineStr">
         <is>
-          <t>unlike</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AJU1" s="1" t="inlineStr">
         <is>
-          <t>1,500</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="AJV1" s="1" t="inlineStr">
         <is>
+          <t>involved</t>
+        </is>
+      </c>
+      <c r="AJW1" s="1" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="AJX1" s="1" t="inlineStr">
+        <is>
+          <t>programming/service</t>
+        </is>
+      </c>
+      <c r="AJY1" s="1" t="inlineStr">
+        <is>
+          <t>reform</t>
+        </is>
+      </c>
+      <c r="AJZ1" s="1" t="inlineStr">
+        <is>
+          <t>respectively</t>
+        </is>
+      </c>
+      <c r="AKA1" s="1" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="AKB1" s="1" t="inlineStr">
+        <is>
+          <t>receive</t>
+        </is>
+      </c>
+      <c r="AKC1" s="1" t="inlineStr">
+        <is>
+          <t>applied</t>
+        </is>
+      </c>
+      <c r="AKD1" s="1" t="inlineStr">
+        <is>
+          <t>researcher-developed</t>
+        </is>
+      </c>
+      <c r="AKE1" s="1" t="inlineStr">
+        <is>
+          <t>pre-</t>
+        </is>
+      </c>
+      <c r="AKF1" s="1" t="inlineStr">
+        <is>
+          <t>appeared</t>
+        </is>
+      </c>
+      <c r="AKG1" s="1" t="inlineStr">
+        <is>
+          <t>ambiguous</t>
+        </is>
+      </c>
+      <c r="AKH1" s="1" t="inlineStr">
+        <is>
           <t>conducted</t>
         </is>
       </c>
-      <c r="AJW1" s="1" t="inlineStr">
-        <is>
-          <t>weeks</t>
-        </is>
-      </c>
-      <c r="AJX1" s="1" t="inlineStr">
-        <is>
-          <t>postachievement</t>
-        </is>
-      </c>
-      <c r="AJY1" s="1" t="inlineStr">
-        <is>
-          <t>pre-</t>
-        </is>
-      </c>
-      <c r="AJZ1" s="1" t="inlineStr">
-        <is>
-          <t>randomized</t>
-        </is>
-      </c>
-      <c r="AKA1" s="1" t="inlineStr">
-        <is>
-          <t>receive</t>
-        </is>
-      </c>
-      <c r="AKB1" s="1" t="inlineStr">
-        <is>
-          <t>researcher-developed</t>
-        </is>
-      </c>
-      <c r="AKC1" s="1" t="inlineStr">
-        <is>
-          <t>limited</t>
-        </is>
-      </c>
-      <c r="AKD1" s="1" t="inlineStr">
+      <c r="AKI1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="AKE1" s="1" t="inlineStr">
+      <c r="AKJ1" s="1" t="inlineStr">
+        <is>
+          <t>achievement-related</t>
+        </is>
+      </c>
+      <c r="AKK1" s="1" t="inlineStr">
+        <is>
+          <t>determine</t>
+        </is>
+      </c>
+      <c r="AKL1" s="1" t="inlineStr">
+        <is>
+          <t>achievement-level</t>
+        </is>
+      </c>
+      <c r="AKM1" s="1" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AKN1" s="1" t="inlineStr">
+        <is>
+          <t>difference</t>
+        </is>
+      </c>
+      <c r="AKO1" s="1" t="inlineStr">
+        <is>
+          <t>documents</t>
+        </is>
+      </c>
+      <c r="AKP1" s="1" t="inlineStr">
+        <is>
+          <t>efficacy</t>
+        </is>
+      </c>
+      <c r="AKQ1" s="1" t="inlineStr">
+        <is>
+          <t>enhance</t>
+        </is>
+      </c>
+      <c r="AKR1" s="1" t="inlineStr">
         <is>
           <t>seemed</t>
         </is>
       </c>
-      <c r="AKF1" s="1" t="inlineStr">
-        <is>
-          <t>involved</t>
-        </is>
-      </c>
-      <c r="AKG1" s="1" t="inlineStr">
-        <is>
-          <t>heterogeneous</t>
-        </is>
-      </c>
-      <c r="AKH1" s="1" t="inlineStr">
-        <is>
-          <t>harm-students</t>
-        </is>
-      </c>
-      <c r="AKI1" s="1" t="inlineStr">
-        <is>
-          <t>greatest</t>
-        </is>
-      </c>
-      <c r="AKJ1" s="1" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="AKK1" s="1" t="inlineStr">
+      <c r="AKS1" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AKT1" s="1" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="AKU1" s="1" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
+      <c r="AKV1" s="1" t="inlineStr">
         <is>
           <t>exists</t>
         </is>
       </c>
-      <c r="AKL1" s="1" t="inlineStr">
-        <is>
-          <t>series</t>
-        </is>
-      </c>
-      <c r="AKM1" s="1" t="inlineStr">
-        <is>
-          <t>cluster</t>
-        </is>
-      </c>
-      <c r="AKN1" s="1" t="inlineStr">
+      <c r="AKW1" s="1" t="inlineStr">
+        <is>
+          <t>texas</t>
+        </is>
+      </c>
+      <c r="AKX1" s="1" t="inlineStr">
+        <is>
+          <t>teaching</t>
+        </is>
+      </c>
+      <c r="AKY1" s="1" t="inlineStr">
+        <is>
+          <t>suggests</t>
+        </is>
+      </c>
+      <c r="AKZ1" s="1" t="inlineStr">
+        <is>
+          <t>states</t>
+        </is>
+      </c>
+      <c r="ALA1" s="1" t="inlineStr">
+        <is>
+          <t>standards</t>
+        </is>
+      </c>
+      <c r="ALB1" s="1" t="inlineStr">
+        <is>
+          <t>significantly</t>
+        </is>
+      </c>
+      <c r="ALC1" s="1" t="inlineStr">
+        <is>
+          <t>samples</t>
+        </is>
+      </c>
+      <c r="ALD1" s="1" t="inlineStr">
         <is>
           <t>evaluating</t>
-        </is>
-      </c>
-      <c r="AKO1" s="1" t="inlineStr">
-        <is>
-          <t>efficacy</t>
-        </is>
-      </c>
-      <c r="AKP1" s="1" t="inlineStr">
-        <is>
-          <t>show</t>
-        </is>
-      </c>
-      <c r="AKQ1" s="1" t="inlineStr">
-        <is>
-          <t>states</t>
-        </is>
-      </c>
-      <c r="AKR1" s="1" t="inlineStr">
-        <is>
-          <t>documents</t>
-        </is>
-      </c>
-      <c r="AKS1" s="1" t="inlineStr">
-        <is>
-          <t>three-level</t>
-        </is>
-      </c>
-      <c r="AKT1" s="1" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="AKU1" s="1" t="inlineStr">
-        <is>
-          <t>determine</t>
-        </is>
-      </c>
-      <c r="AKV1" s="1" t="inlineStr">
-        <is>
-          <t>thus</t>
-        </is>
-      </c>
-      <c r="AKW1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="AKX1" s="1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>enhance</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>increased</t>
-        </is>
-      </c>
-      <c r="ALA1" s="1" t="inlineStr">
-        <is>
-          <t>benefit</t>
-        </is>
-      </c>
-      <c r="ALB1" s="1" t="inlineStr">
-        <is>
-          <t>delivery</t>
-        </is>
-      </c>
-      <c r="ALC1" s="1" t="inlineStr">
-        <is>
-          <t>efforts</t>
-        </is>
-      </c>
-      <c r="ALD1" s="1" t="inlineStr">
-        <is>
-          <t>fourth-grade</t>
-        </is>
-      </c>
-      <c r="ALE1" s="1" t="inlineStr">
-        <is>
-          <t>fruitfully</t>
-        </is>
-      </c>
-      <c r="ALF1" s="1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="ALG1" s="1" t="inlineStr">
-        <is>
-          <t>outperformed</t>
-        </is>
-      </c>
-      <c r="ALH1" s="1" t="inlineStr">
-        <is>
-          <t>programming/service</t>
-        </is>
-      </c>
-      <c r="ALI1" s="1" t="inlineStr">
-        <is>
-          <t>reform</t>
-        </is>
-      </c>
-      <c r="ALJ1" s="1" t="inlineStr">
-        <is>
-          <t>respectively</t>
-        </is>
-      </c>
-      <c r="ALK1" s="1" t="inlineStr">
-        <is>
-          <t>samples</t>
-        </is>
-      </c>
-      <c r="ALL1" s="1" t="inlineStr">
-        <is>
-          <t>significantly</t>
-        </is>
-      </c>
-      <c r="ALM1" s="1" t="inlineStr">
-        <is>
-          <t>standards</t>
-        </is>
-      </c>
-      <c r="ALN1" s="1" t="inlineStr">
-        <is>
-          <t>suggests</t>
-        </is>
-      </c>
-      <c r="ALO1" s="1" t="inlineStr">
-        <is>
-          <t>teaching</t>
-        </is>
-      </c>
-      <c r="ALP1" s="1" t="inlineStr">
-        <is>
-          <t>texas</t>
-        </is>
-      </c>
-      <c r="ALQ1" s="1" t="inlineStr">
-        <is>
-          <t>multilevel</t>
-        </is>
-      </c>
-      <c r="ALR1" s="1" t="inlineStr">
-        <is>
-          <t>differ</t>
-        </is>
-      </c>
-      <c r="ALS1" s="1" t="inlineStr">
-        <is>
-          <t>cornell</t>
-        </is>
-      </c>
-      <c r="ALT1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="ALU1" s="1" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="ALV1" s="1" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="ALW1" s="1" t="inlineStr">
-        <is>
-          <t>appeared</t>
-        </is>
-      </c>
-      <c r="ALX1" s="1" t="inlineStr">
-        <is>
-          <t>ambiguous</t>
-        </is>
-      </c>
-      <c r="ALY1" s="1" t="inlineStr">
-        <is>
-          <t>achievement-related</t>
-        </is>
-      </c>
-      <c r="ALZ1" s="1" t="inlineStr">
-        <is>
-          <t>achievement-level</t>
-        </is>
-      </c>
-      <c r="AMA1" s="1" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AMB1" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AMC1" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AMD1" s="1" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="AME1" s="1" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="AMF1" s="1" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AMG1" s="1" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="AMH1" s="1" t="inlineStr">
-        <is>
-          <t>adoption</t>
-        </is>
-      </c>
-      <c r="AMI1" s="1" t="inlineStr">
-        <is>
-          <t>cognition</t>
-        </is>
-      </c>
-      <c r="AMJ1" s="1" t="inlineStr">
-        <is>
-          <t>comparing</t>
-        </is>
-      </c>
-      <c r="AMK1" s="1" t="inlineStr">
-        <is>
-          <t>moderated</t>
         </is>
       </c>
     </row>
@@ -5573,13 +5408,13 @@
         <v>0.75</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="H2" t="n">
-        <v>0.66</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0.66</v>
@@ -5591,73 +5426,73 @@
         <v>0.64</v>
       </c>
       <c r="L2" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="M2" t="n">
         <v>0.63</v>
       </c>
       <c r="N2" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="O2" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="P2" t="n">
         <v>0.59</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="R2" t="n">
         <v>0.5800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>0.55</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>0.55</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>0.55</v>
       </c>
       <c r="V2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.54</v>
       </c>
-      <c r="W2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.53</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>0.53</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AE2" t="n">
         <v>0.51</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AF2" t="n">
         <v>0.51</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AG2" t="n">
         <v>0.51</v>
       </c>
-      <c r="AC2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AH2" t="n">
         <v>0.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.49</v>
       </c>
       <c r="AI2" t="n">
         <v>0.48</v>
@@ -5666,31 +5501,31 @@
         <v>0.48</v>
       </c>
       <c r="AK2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AM2" t="n">
         <v>0.47</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AN2" t="n">
         <v>0.47</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.46</v>
       </c>
       <c r="AO2" t="n">
         <v>0.46</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AT2" t="n">
         <v>0.42</v>
@@ -5699,19 +5534,19 @@
         <v>0.42</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="AW2" t="n">
         <v>0.41</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="BA2" t="n">
         <v>0.39</v>
@@ -5720,10 +5555,10 @@
         <v>0.39</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.39</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="BE2" t="n">
         <v>0.38</v>
@@ -5732,25 +5567,25 @@
         <v>0.38</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="BH2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>0.37</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BK2" t="n">
         <v>0.37</v>
       </c>
-      <c r="BJ2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.36</v>
-      </c>
       <c r="BL2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="BN2" t="n">
         <v>0.36</v>
@@ -5759,10 +5594,10 @@
         <v>0.36</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="BR2" t="n">
         <v>0.35</v>
@@ -5783,22 +5618,22 @@
         <v>0.35</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="CD2" t="n">
         <v>0.34</v>
@@ -5819,7 +5654,7 @@
         <v>0.34</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CK2" t="n">
         <v>0.33</v>
@@ -5834,13 +5669,13 @@
         <v>0.33</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CR2" t="n">
         <v>0.32</v>
@@ -5849,10 +5684,10 @@
         <v>0.32</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="CV2" t="n">
         <v>0.31</v>
@@ -5867,46 +5702,46 @@
         <v>0.31</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DN2" t="n">
         <v>0.27</v>
@@ -5942,10 +5777,10 @@
         <v>0.27</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EA2" t="n">
         <v>0.26</v>
@@ -5963,16 +5798,16 @@
         <v>0.26</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EJ2" t="n">
         <v>0.25</v>
@@ -5993,13 +5828,13 @@
         <v>0.25</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="ES2" t="n">
         <v>0.24</v>
@@ -6059,25 +5894,25 @@
         <v>0.23</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FS2" t="n">
         <v>0.22</v>
@@ -6089,25 +5924,25 @@
         <v>0.22</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GC2" t="n">
         <v>0.21</v>
@@ -6143,22 +5978,22 @@
         <v>0.21</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GT2" t="n">
         <v>0.2</v>
@@ -6173,16 +6008,16 @@
         <v>0.2</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HB2" t="n">
         <v>0.19</v>
@@ -6215,25 +6050,25 @@
         <v>0.19</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HS2" t="n">
         <v>0.18</v>
@@ -6335,13 +6170,13 @@
         <v>0.18</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JC2" t="n">
         <v>0.17</v>
@@ -6383,31 +6218,31 @@
         <v>0.17</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JY2" t="n">
         <v>0.16</v>
@@ -6464,22 +6299,22 @@
         <v>0.16</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KW2" t="n">
         <v>0.15</v>
@@ -6506,43 +6341,43 @@
         <v>0.15</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LR2" t="n">
         <v>0.14</v>
@@ -6614,37 +6449,37 @@
         <v>0.14</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MZ2" t="n">
         <v>0.13</v>
@@ -6743,40 +6578,40 @@
         <v>0.13</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OR2" t="n">
         <v>0.12</v>
@@ -6800,52 +6635,52 @@
         <v>0.12</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="OZ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PG2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PI2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PO2" t="n">
         <v>0.11</v>
@@ -6956,52 +6791,52 @@
         <v>0.11</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RO2" t="n">
         <v>0.1</v>
@@ -7067,52 +6902,52 @@
         <v>0.1</v>
       </c>
       <c r="SJ2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SK2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SL2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SQ2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SR2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SS2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ST2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SU2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SV2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SW2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SX2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SY2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="SZ2" t="n">
         <v>0.09</v>
@@ -7817,31 +7652,31 @@
         <v>0.09</v>
       </c>
       <c r="ABZ2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="ACA2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="ACB2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="ACC2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="ACD2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="ACE2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="ACF2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="ACG2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="ACH2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="ACI2" t="n">
         <v>0.08</v>
@@ -8267,166 +8102,166 @@
         <v>0.08</v>
       </c>
       <c r="AHT2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AID2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AII2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIJ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIK2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIP2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIQ2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIR2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIS2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIT2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIU2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIV2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIW2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIX2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIY2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJA2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJB2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJC2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJD2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJE2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJG2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJI2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJJ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJV2" t="n">
         <v>0.06</v>
@@ -8531,105 +8366,6 @@
         <v>0.06</v>
       </c>
       <c r="ALD2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALE2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALF2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALG2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALH2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALI2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALJ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALK2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALL2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALM2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALN2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALO2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALP2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALQ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALR2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALS2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALT2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALU2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALW2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMA2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMB2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMD2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AME2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMF2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMG2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMH2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMI2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMJ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMK2" t="n">
         <v>0.06</v>
       </c>
     </row>
